--- a/WMT.xlsx
+++ b/WMT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William S\Documents\Models Backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE6AC6B-93CD-42B9-A21B-82EB687775B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B72B492-58AB-49AF-98EB-6FB4289B1144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E111F6CE-28DF-433D-BE5C-B517463893F7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{E111F6CE-28DF-433D-BE5C-B517463893F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -2489,11 +2489,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{396128C0-03D8-49B2-8BF6-A39710DFD7FA}">
   <dimension ref="A1:XFD138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C120" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="W48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="X103" sqref="X103"/>
+      <selection pane="bottomRight" activeCell="X76" sqref="X76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -17414,8 +17414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B516A33-621A-415F-9CAD-CE007E237F78}">
   <dimension ref="B2:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -17440,8 +17440,8 @@
         <v>173</v>
       </c>
       <c r="C4" s="90">
-        <f>Model!W76/Model!W93</f>
-        <v>0.8621154045374495</v>
+        <f>Model!X76/Model!X93</f>
+        <v>0.84249091582498326</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
@@ -17449,8 +17449,8 @@
         <v>174</v>
       </c>
       <c r="C5" s="90">
-        <f>Model!W72/Model!W93</f>
-        <v>0.12241790117062053</v>
+        <f>Model!X72/Model!X93</f>
+        <v>0.13937076447211683</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
@@ -17458,8 +17458,8 @@
         <v>192</v>
       </c>
       <c r="C6" s="90">
-        <f>(Model!W72+Model!W73)/Model!W93</f>
-        <v>0.2019165026416658</v>
+        <f>(Model!X72+Model!X73)/Model!X93</f>
+        <v>0.21466681348161643</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="15" x14ac:dyDescent="0.25">
@@ -17472,8 +17472,8 @@
         <v>176</v>
       </c>
       <c r="C9" s="90">
-        <f>Model!W101/Model!W102</f>
-        <v>1.8754906542056076</v>
+        <f>Model!X101/Model!X102</f>
+        <v>1.8882774253099186</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
@@ -17481,8 +17481,8 @@
         <v>177</v>
       </c>
       <c r="C10" s="90">
-        <f>Model!W101/Model!W83</f>
-        <v>0.6522332637258168</v>
+        <f>Model!X101/Model!X83</f>
+        <v>0.65377287124947914</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
@@ -17490,8 +17490,8 @@
         <v>178</v>
       </c>
       <c r="C11" s="90">
-        <f>(Model!W84+Model!W94)/Model!W102</f>
-        <v>0.50941588785046732</v>
+        <f>(Model!X84+Model!X94)/Model!X102</f>
+        <v>0.47244324488532136</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
@@ -17499,8 +17499,8 @@
         <v>179</v>
       </c>
       <c r="C12" s="90">
-        <f>Model!W94/Model!W102</f>
-        <v>0.37586448598130839</v>
+        <f>Model!X94/Model!X102</f>
+        <v>0.34819540350754202</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="15" x14ac:dyDescent="0.25">
@@ -17513,8 +17513,8 @@
         <v>181</v>
       </c>
       <c r="C15" s="91">
-        <f>Model!W66</f>
-        <v>0.24526555955046656</v>
+        <f>Model!X66</f>
+        <v>0.24228469760200944</v>
       </c>
       <c r="D15" s="91"/>
     </row>
@@ -17523,8 +17523,8 @@
         <v>182</v>
       </c>
       <c r="C16" s="91">
-        <f>Model!W67</f>
-        <v>3.7564721090069156E-2</v>
+        <f>Model!X67</f>
+        <v>4.4957417025340465E-2</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
@@ -17532,8 +17532,8 @@
         <v>183</v>
       </c>
       <c r="C17" s="91">
-        <f>Model!W48/Model!W34</f>
-        <v>1.4508826084806702E-2</v>
+        <f>Model!X48/Model!X34</f>
+        <v>3.3804733185939115E-2</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
@@ -17541,8 +17541,8 @@
         <v>184</v>
       </c>
       <c r="C18" s="91">
-        <f>Model!W48/Model!W83</f>
-        <v>8.3447765923735078E-3</v>
+        <f>Model!X48/Model!X83</f>
+        <v>2.0906233439455663E-2</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
@@ -17550,8 +17550,8 @@
         <v>185</v>
       </c>
       <c r="C19" s="91">
-        <f>Model!W48/Model!W102</f>
-        <v>2.3995327102803738E-2</v>
+        <f>Model!X48/Model!X102</f>
+        <v>6.0383002091439118E-2</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="15" x14ac:dyDescent="0.25">
